--- a/discussdesk.xlsx
+++ b/discussdesk.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91943\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db0c29e38e367ffc/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="225" documentId="11_2D76A3FE1D0D23BEA0FF2DC8D40D318149309188" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF8AF5A0-2762-4290-9697-B8C19E2E7655}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Price_29-10-2024-01-48-30-pm_" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Price_29-10-2024-01-48-30-pm_'!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>ModelName</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Model Name</t>
   </si>
   <si>
     <t>DLR-NLC</t>
@@ -38,35 +48,36 @@
     <t>DisAm</t>
   </si>
   <si>
-    <t>OfferPrice</t>
+    <t>Inv-Price</t>
+  </si>
+  <si>
+    <t>Offer-Price</t>
   </si>
   <si>
     <t>OFFERLESS%</t>
   </si>
   <si>
-    <t>LastPrice</t>
-  </si>
-  <si>
-    <t>Inv-Price</t>
-  </si>
-  <si>
-    <t>HRD-2353PSG-P (HAIER 215L DC)</t>
+    <t>Last-Price</t>
+  </si>
+  <si>
+    <t>HS12T-TQS2BE-FS (HAIER 1T 2 STAR FS ID)</t>
+  </si>
+  <si>
+    <t>HU12-2BE-FS (HAIER 1T 2 STAR FS OD)</t>
+  </si>
+  <si>
+    <t>HS18C-TQB3BN-INV (HAIER 1.5T 3 STAR INV AC ID)</t>
+  </si>
+  <si>
+    <t>HU18-3BN-INV (HAIER 1.5T 3 STAR INV OD)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,7 +94,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -186,8 +197,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -374,12 +400,119 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -398,170 +531,84 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -575,11 +622,17 @@
     <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1 2" xfId="43" xr:uid="{2DC27922-BAC5-4615-BFB5-D2B50DDD4A08}"/>
     <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2 2" xfId="44" xr:uid="{00260273-2BAF-4C37-93B8-9E453CCA260A}"/>
     <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3 2" xfId="45" xr:uid="{AB0A05B4-B2AE-4CC7-B41D-53E66CAB1B3A}"/>
     <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4 2" xfId="46" xr:uid="{689863C2-7582-45DA-9C43-B5E9E0818F7E}"/>
     <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5 2" xfId="47" xr:uid="{4D07AE3B-D204-4ABE-94B8-5576954CE627}"/>
     <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6 2" xfId="48" xr:uid="{8C89C7BF-11B9-4860-9FDD-7E39645A2748}"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -598,6 +651,7 @@
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="42" xr:uid="{1EAFDA24-F560-421E-B393-D019427CEA09}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
@@ -629,44 +683,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -699,9 +753,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -740,190 +794,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,72 +966,130 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5">
-        <v>20130</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="2">
+        <v>26400</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>31477.272727272724</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>27700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>23561.25</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>20733.900000000001</v>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>35600</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>41931.818181818184</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>36900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H8">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>